--- a/FILE BÁO CÁO/614D-82141の生産実績.xlsx
+++ b/FILE BÁO CÁO/614D-82141の生産実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.25.216.146\d\1. Bao cao moi ngay\2024\THÁNG 11\FILE BÁO CÁO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486A3D69-E9C8-4B3A-B47B-137FC9EE7FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752C79B6-83B0-4BF4-B072-22594C3F3739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{74D3065D-52D4-4200-B231-B93DEECB3A78}"/>
   </bookViews>
@@ -4077,6 +4077,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4098,19 +4113,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4120,16 +4126,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4137,10 +4146,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4182,21 +4197,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4522,7 +4522,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="AT8" sqref="AT8"/>
+      <selection pane="topRight" activeCell="AR5" sqref="AR5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4576,94 +4576,94 @@
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="53">
+      <c r="B2" s="58">
         <v>82141</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="60">
+      <c r="D2" s="62"/>
+      <c r="E2" s="53">
         <v>45597</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53">
         <v>45598</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="60">
+      <c r="H2" s="54"/>
+      <c r="I2" s="53">
         <v>45600</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="60">
+      <c r="J2" s="54"/>
+      <c r="K2" s="53">
         <v>45601</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="60">
+      <c r="L2" s="54"/>
+      <c r="M2" s="53">
         <v>45602</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="60">
+      <c r="N2" s="54"/>
+      <c r="O2" s="53">
         <v>45603</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="60">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="53">
         <v>45604</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="60">
+      <c r="R2" s="54"/>
+      <c r="S2" s="53">
         <v>45605</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60">
+      <c r="T2" s="54"/>
+      <c r="U2" s="53">
         <v>45607</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="60">
+      <c r="V2" s="54"/>
+      <c r="W2" s="53">
         <v>45608</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="60">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="53">
         <v>45609</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="60">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="53">
         <v>45610</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="60">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="53">
         <v>45611</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="60">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="53">
         <v>45614</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="60">
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="53">
         <v>45615</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="60">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="53">
         <v>45616</v>
       </c>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="60">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="53">
         <v>45617</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="60">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="53">
         <v>45618</v>
       </c>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="60">
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="53">
         <v>45619</v>
       </c>
-      <c r="AP2" s="61"/>
+      <c r="AP2" s="54"/>
     </row>
     <row r="3" spans="2:42" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="38" t="s">
         <v>48</v>
       </c>
@@ -4780,8 +4780,8 @@
       </c>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="55"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -4903,8 +4903,8 @@
       </c>
     </row>
     <row r="5" spans="2:42" ht="15">
-      <c r="B5" s="55"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="27" t="s">
         <v>34</v>
       </c>
@@ -5016,12 +5016,16 @@
       <c r="AN5" s="27">
         <v>140</v>
       </c>
-      <c r="AO5" s="51"/>
-      <c r="AP5" s="27"/>
+      <c r="AO5" s="51">
+        <v>190</v>
+      </c>
+      <c r="AP5" s="27">
+        <v>140</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
-      <c r="B6" s="55"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5133,11 +5137,15 @@
       <c r="AN6" s="10">
         <v>104</v>
       </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
+      <c r="AO6" s="10">
+        <v>31</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
-      <c r="B7" s="55"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="69" t="s">
         <v>3</v>
       </c>
@@ -5250,12 +5258,16 @@
       <c r="AN7" s="9">
         <v>130</v>
       </c>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
+      <c r="AO7" s="9">
+        <v>112</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
-      <c r="B8" s="55"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="67" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -5369,12 +5381,16 @@
       <c r="AN8" s="36">
         <v>89</v>
       </c>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
+      <c r="AO8" s="36">
+        <v>154</v>
+      </c>
+      <c r="AP8" s="36">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
@@ -5418,8 +5434,8 @@
       <c r="AP9" s="36"/>
     </row>
     <row r="10" spans="2:42" ht="18.75" hidden="1" customHeight="1">
-      <c r="B10" s="55"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
@@ -5463,8 +5479,8 @@
       <c r="AP10" s="36"/>
     </row>
     <row r="11" spans="2:42" ht="18.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
@@ -5508,8 +5524,8 @@
       <c r="AP11" s="36"/>
     </row>
     <row r="12" spans="2:42" ht="15" thickBot="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="14" t="s">
         <v>6</v>
       </c>
@@ -5621,12 +5637,16 @@
       <c r="AN12" s="37">
         <v>87</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
+      <c r="AO12" s="37">
+        <v>152</v>
+      </c>
+      <c r="AP12" s="37">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
-      <c r="B13" s="55"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="65" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -5748,8 +5768,8 @@
       </c>
     </row>
     <row r="14" spans="2:42">
-      <c r="B14" s="55"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="42" t="s">
         <v>51</v>
       </c>
@@ -5869,8 +5889,8 @@
       </c>
     </row>
     <row r="15" spans="2:42" ht="15" thickBot="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="52" t="s">
         <v>36</v>
       </c>
@@ -5982,12 +6002,16 @@
       <c r="AN15" s="10">
         <v>61</v>
       </c>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
+      <c r="AO15" s="10">
+        <v>69</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
-      <c r="B16" s="55"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -6109,8 +6133,8 @@
       </c>
     </row>
     <row r="17" spans="2:42" ht="15" thickBot="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -6262,16 +6286,16 @@
       </c>
       <c r="AO17" s="28">
         <f t="shared" ref="AO17:AP17" si="4">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.94876033057851239</v>
       </c>
       <c r="AP17" s="28">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.94666666666666666</v>
       </c>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="55"/>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -6393,8 +6417,8 @@
       </c>
     </row>
     <row r="19" spans="2:42" ht="15" thickBot="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
@@ -6506,12 +6530,16 @@
       <c r="AN19" s="16">
         <v>0.81799999999999995</v>
       </c>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
+      <c r="AO19" s="16">
+        <v>1.05</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>1.006</v>
+      </c>
     </row>
     <row r="20" spans="2:42">
-      <c r="B20" s="55"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -6633,8 +6661,8 @@
       </c>
     </row>
     <row r="21" spans="2:42">
-      <c r="B21" s="55"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="39" t="s">
         <v>35</v>
       </c>
@@ -6784,16 +6812,16 @@
       </c>
       <c r="AO21" s="40">
         <f t="shared" ref="AO21:AP21" si="9">AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>15.272727272727272</v>
       </c>
       <c r="AP21" s="40">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="63" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -6945,16 +6973,16 @@
       </c>
       <c r="AO22" s="15">
         <f t="shared" ref="AO22:AP22" si="12">AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>15.074380165289258</v>
       </c>
       <c r="AP22" s="15">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="23" spans="2:42">
-      <c r="B23" s="55"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="65" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -7076,8 +7104,8 @@
       </c>
     </row>
     <row r="24" spans="2:42">
-      <c r="B24" s="55"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
@@ -7197,8 +7225,8 @@
       </c>
     </row>
     <row r="25" spans="2:42" ht="15" thickBot="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
@@ -7348,34 +7376,17 @@
       </c>
       <c r="AO25" s="8">
         <f t="shared" ref="AO25:AP25" si="15">AO24/(AO24+AO12)*1000000</f>
-        <v>1000000</v>
+        <v>44025.157232704398</v>
       </c>
       <c r="AP25" s="8">
         <f t="shared" si="15"/>
-        <v>1000000</v>
+        <v>91666.666666666657</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="B2:B25"/>
     <mergeCell ref="C2:D3"/>
     <mergeCell ref="E2:F2"/>
@@ -7388,6 +7399,23 @@
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7405,7 +7433,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AR22" sqref="AR22"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7478,94 +7506,94 @@
       <c r="AO1" s="49"/>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="53">
+      <c r="B2" s="58">
         <v>82141</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="60">
+      <c r="D2" s="62"/>
+      <c r="E2" s="53">
         <v>45597</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53">
         <v>45598</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="60">
+      <c r="H2" s="54"/>
+      <c r="I2" s="53">
         <v>45600</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="60">
+      <c r="J2" s="54"/>
+      <c r="K2" s="53">
         <v>45601</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="60">
+      <c r="L2" s="54"/>
+      <c r="M2" s="53">
         <v>45602</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="60">
+      <c r="N2" s="54"/>
+      <c r="O2" s="53">
         <v>45603</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="60">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="53">
         <v>45604</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="60">
+      <c r="R2" s="54"/>
+      <c r="S2" s="53">
         <v>45605</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60">
+      <c r="T2" s="54"/>
+      <c r="U2" s="53">
         <v>45607</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="60">
+      <c r="V2" s="54"/>
+      <c r="W2" s="53">
         <v>45608</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="60">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="53">
         <v>45609</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="60">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="53">
         <v>45610</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="60">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="53">
         <v>45611</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="60">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="53">
         <v>45614</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="60">
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="53">
         <v>45615</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="60">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="53">
         <v>45616</v>
       </c>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="60">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="53">
         <v>45617</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="60">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="53">
         <v>45618</v>
       </c>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="60">
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="53">
         <v>45619</v>
       </c>
-      <c r="AP2" s="61"/>
+      <c r="AP2" s="54"/>
     </row>
     <row r="3" spans="2:42" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="38" t="s">
         <v>42</v>
       </c>
@@ -7682,8 +7710,8 @@
       </c>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="55"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="55" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -7805,8 +7833,8 @@
       </c>
     </row>
     <row r="5" spans="2:42">
-      <c r="B5" s="55"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="27" t="s">
         <v>34</v>
       </c>
@@ -7918,12 +7946,16 @@
       <c r="AN5" s="27">
         <v>190</v>
       </c>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
+      <c r="AO5" s="27">
+        <v>140</v>
+      </c>
+      <c r="AP5" s="27">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
-      <c r="B6" s="55"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
@@ -8035,11 +8067,15 @@
       <c r="AN6" s="10">
         <v>34</v>
       </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
+      <c r="AO6" s="10">
+        <v>58</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
-      <c r="B7" s="55"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="69" t="s">
         <v>3</v>
       </c>
@@ -8152,12 +8188,16 @@
       <c r="AN7" s="9">
         <v>110</v>
       </c>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
+      <c r="AO7" s="9">
+        <v>130</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
-      <c r="B8" s="55"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="67" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -8271,12 +8311,16 @@
       <c r="AN8" s="36">
         <v>130</v>
       </c>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
+      <c r="AO8" s="36">
+        <v>137</v>
+      </c>
+      <c r="AP8" s="36">
+        <v>123</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
@@ -8320,8 +8364,8 @@
       <c r="AP9" s="36"/>
     </row>
     <row r="10" spans="2:42" ht="18.75" hidden="1" customHeight="1">
-      <c r="B10" s="55"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
@@ -8365,8 +8409,8 @@
       <c r="AP10" s="36"/>
     </row>
     <row r="11" spans="2:42" ht="18.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
@@ -8410,8 +8454,8 @@
       <c r="AP11" s="36"/>
     </row>
     <row r="12" spans="2:42" ht="15.75" thickBot="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="14" t="s">
         <v>6</v>
       </c>
@@ -8523,12 +8567,16 @@
       <c r="AN12" s="37">
         <v>128</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
+      <c r="AO12" s="37">
+        <v>135</v>
+      </c>
+      <c r="AP12" s="37">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
-      <c r="B13" s="55"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="65" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -8650,8 +8698,8 @@
       </c>
     </row>
     <row r="14" spans="2:42">
-      <c r="B14" s="55"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="42" t="s">
         <v>17</v>
       </c>
@@ -8771,8 +8819,8 @@
       </c>
     </row>
     <row r="15" spans="2:42" ht="15" thickBot="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="44" t="s">
         <v>36</v>
       </c>
@@ -8884,12 +8932,16 @@
       <c r="AN15" s="27">
         <v>68</v>
       </c>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
+      <c r="AO15" s="27">
+        <v>72</v>
+      </c>
+      <c r="AP15" s="27">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="2:42">
-      <c r="B16" s="55"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -9011,8 +9063,8 @@
       </c>
     </row>
     <row r="17" spans="2:42" ht="15" thickBot="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -9164,16 +9216,16 @@
       </c>
       <c r="AO17" s="28">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.90333333333333332</v>
       </c>
       <c r="AP17" s="28">
         <f>(SUM(AP4:AP5)-AP6)/(SUM(AP4:AP5))</f>
-        <v>1</v>
+        <v>0.94710743801652897</v>
       </c>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="55"/>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -9295,8 +9347,8 @@
       </c>
     </row>
     <row r="19" spans="2:42" ht="15" thickBot="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
@@ -9408,12 +9460,16 @@
       <c r="AN19" s="16">
         <v>1.008</v>
       </c>
-      <c r="AO19" s="16"/>
-      <c r="AP19" s="16"/>
+      <c r="AO19" s="16">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AP19" s="16">
+        <v>0.97099999999999997</v>
+      </c>
     </row>
     <row r="20" spans="2:42">
-      <c r="B20" s="55"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -9535,8 +9591,8 @@
       </c>
     </row>
     <row r="21" spans="2:42">
-      <c r="B21" s="55"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="39" t="s">
         <v>35</v>
       </c>
@@ -9686,16 +9742,16 @@
       </c>
       <c r="AO21" s="40">
         <f>AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>13.7</v>
       </c>
       <c r="AP21" s="40">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>12.198347107438016</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="63" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -9847,16 +9903,16 @@
       </c>
       <c r="AO22" s="15">
         <f>AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AP22" s="15">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:42">
-      <c r="B23" s="55"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="65" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -9978,8 +10034,8 @@
       </c>
     </row>
     <row r="24" spans="2:42">
-      <c r="B24" s="55"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
@@ -10099,8 +10155,8 @@
       </c>
     </row>
     <row r="25" spans="2:42" ht="15" thickBot="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
@@ -10248,19 +10304,32 @@
         <f>AN24/(AN24+AN12)*1000000</f>
         <v>37593.984962406015</v>
       </c>
-      <c r="AO25" s="8" t="e">
+      <c r="AO25" s="8">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="8">
         <f>AP24/(AP24+AP12)*1000000</f>
-        <v>1000000</v>
+        <v>8196.7213114754104</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="B2:B25"/>
@@ -10277,19 +10346,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10307,7 +10363,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="AQ29" sqref="AQ29"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10325,94 +10381,94 @@
       </c>
     </row>
     <row r="2" spans="2:42">
-      <c r="B2" s="53">
+      <c r="B2" s="58">
         <v>82141</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="60">
+      <c r="D2" s="62"/>
+      <c r="E2" s="53">
         <v>45597</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="60">
+      <c r="F2" s="54"/>
+      <c r="G2" s="53">
         <v>45598</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="60">
+      <c r="H2" s="54"/>
+      <c r="I2" s="53">
         <v>45600</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="60">
+      <c r="J2" s="54"/>
+      <c r="K2" s="53">
         <v>45601</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="60">
+      <c r="L2" s="54"/>
+      <c r="M2" s="53">
         <v>45602</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="60">
+      <c r="N2" s="54"/>
+      <c r="O2" s="53">
         <v>45603</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="60">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="53">
         <v>45604</v>
       </c>
-      <c r="R2" s="61"/>
-      <c r="S2" s="60">
+      <c r="R2" s="54"/>
+      <c r="S2" s="53">
         <v>45605</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="60">
+      <c r="T2" s="54"/>
+      <c r="U2" s="53">
         <v>45607</v>
       </c>
-      <c r="V2" s="61"/>
-      <c r="W2" s="60">
+      <c r="V2" s="54"/>
+      <c r="W2" s="53">
         <v>45608</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="60">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="53">
         <v>45609</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="60">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="53">
         <v>45610</v>
       </c>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="60">
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="53">
         <v>45611</v>
       </c>
-      <c r="AD2" s="61"/>
-      <c r="AE2" s="60">
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="53">
         <v>45614</v>
       </c>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="60">
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="53">
         <v>45615</v>
       </c>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="60">
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="53">
         <v>45616</v>
       </c>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="60">
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="53">
         <v>45617</v>
       </c>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="60">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="53">
         <v>45618</v>
       </c>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="60">
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="53">
         <v>45619</v>
       </c>
-      <c r="AP2" s="61"/>
+      <c r="AP2" s="54"/>
     </row>
     <row r="3" spans="2:42" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="38" t="s">
         <v>38</v>
       </c>
@@ -10529,8 +10585,8 @@
       </c>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="55"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="55" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -10652,8 +10708,8 @@
       </c>
     </row>
     <row r="5" spans="2:42">
-      <c r="B5" s="55"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="27" t="s">
         <v>34</v>
       </c>
@@ -10765,12 +10821,16 @@
       <c r="AN5" s="27">
         <v>190</v>
       </c>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
+      <c r="AO5" s="27">
+        <v>140</v>
+      </c>
+      <c r="AP5" s="27">
+        <v>190</v>
+      </c>
     </row>
     <row r="6" spans="2:42" ht="21" customHeight="1" thickBot="1">
-      <c r="B6" s="55"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
@@ -10882,11 +10942,15 @@
       <c r="AN6" s="10">
         <v>32</v>
       </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
+      <c r="AO6" s="10">
+        <v>34</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="2:42">
-      <c r="B7" s="55"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="69" t="s">
         <v>3</v>
       </c>
@@ -10999,12 +11063,16 @@
       <c r="AN7" s="9">
         <v>113</v>
       </c>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
+      <c r="AO7" s="9">
+        <v>130</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="2:42">
-      <c r="B8" s="55"/>
-      <c r="C8" s="65" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="67" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -11118,12 +11186,16 @@
       <c r="AN8" s="36">
         <v>135</v>
       </c>
-      <c r="AO8" s="36"/>
-      <c r="AP8" s="36"/>
+      <c r="AO8" s="36">
+        <v>118</v>
+      </c>
+      <c r="AP8" s="36">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="2:42" ht="18.75" hidden="1" customHeight="1">
-      <c r="B9" s="55"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
@@ -11167,8 +11239,8 @@
       <c r="AP9" s="36"/>
     </row>
     <row r="10" spans="2:42" ht="18.75" hidden="1" customHeight="1">
-      <c r="B10" s="55"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="13" t="s">
         <v>4</v>
       </c>
@@ -11212,8 +11284,8 @@
       <c r="AP10" s="36"/>
     </row>
     <row r="11" spans="2:42" ht="18.75" hidden="1" customHeight="1" thickBot="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="13" t="s">
         <v>5</v>
       </c>
@@ -11257,8 +11329,8 @@
       <c r="AP11" s="36"/>
     </row>
     <row r="12" spans="2:42" ht="15.75" thickBot="1">
-      <c r="B12" s="55"/>
-      <c r="C12" s="66"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="14" t="s">
         <v>6</v>
       </c>
@@ -11370,12 +11442,16 @@
       <c r="AN12" s="46">
         <v>133</v>
       </c>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="46"/>
+      <c r="AO12" s="37">
+        <v>116</v>
+      </c>
+      <c r="AP12" s="46">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="2:42">
-      <c r="B13" s="55"/>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="60"/>
+      <c r="C13" s="65" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -11497,8 +11573,8 @@
       </c>
     </row>
     <row r="14" spans="2:42">
-      <c r="B14" s="55"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="42" t="s">
         <v>17</v>
       </c>
@@ -11618,8 +11694,8 @@
       </c>
     </row>
     <row r="15" spans="2:42" ht="15" thickBot="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="63"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="44" t="s">
         <v>36</v>
       </c>
@@ -11732,15 +11808,15 @@
         <v>70</v>
       </c>
       <c r="AO15" s="27">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP15" s="27">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:42">
-      <c r="B16" s="55"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -11862,8 +11938,8 @@
       </c>
     </row>
     <row r="17" spans="2:42" ht="15" thickBot="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="63" t="s">
+      <c r="B17" s="60"/>
+      <c r="C17" s="66" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -12015,16 +12091,16 @@
       </c>
       <c r="AO17" s="28">
         <f t="shared" ref="AO17:AP17" si="14">(SUM(AO4:AO5)-AO6)/(SUM(AO4:AO5))</f>
-        <v>1</v>
+        <v>0.94333333333333336</v>
       </c>
       <c r="AP17" s="28">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.88429752066115708</v>
       </c>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="55"/>
-      <c r="C18" s="62" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -12146,8 +12222,8 @@
       </c>
     </row>
     <row r="19" spans="2:42" ht="15" thickBot="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="66"/>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
@@ -12260,15 +12336,15 @@
         <v>0.873</v>
       </c>
       <c r="AO19" s="16">
-        <v>0.66700000000000004</v>
+        <v>0.747</v>
       </c>
       <c r="AP19" s="16">
-        <v>0.873</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="20" spans="2:42">
-      <c r="B20" s="55"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="65" t="s">
         <v>0</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -12390,8 +12466,8 @@
       </c>
     </row>
     <row r="21" spans="2:42">
-      <c r="B21" s="55"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="39" t="s">
         <v>35</v>
       </c>
@@ -12541,16 +12617,16 @@
       </c>
       <c r="AO21" s="40">
         <f>AO8/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>11.799999999999999</v>
       </c>
       <c r="AP21" s="40">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>11.206611570247933</v>
       </c>
     </row>
     <row r="22" spans="2:42" ht="15" thickBot="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="63" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -12702,16 +12778,16 @@
       </c>
       <c r="AO22" s="15">
         <f>AO12/SUM(AO4:AO5)*60</f>
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="AP22" s="15">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>11.008264462809919</v>
       </c>
     </row>
     <row r="23" spans="2:42">
-      <c r="B23" s="55"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="65" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -12833,8 +12909,8 @@
       </c>
     </row>
     <row r="24" spans="2:42">
-      <c r="B24" s="55"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
@@ -12954,8 +13030,8 @@
       </c>
     </row>
     <row r="25" spans="2:42" ht="15" thickBot="1">
-      <c r="B25" s="55"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="4" t="s">
         <v>16</v>
       </c>
@@ -13105,17 +13181,30 @@
       </c>
       <c r="AO25" s="8">
         <f t="shared" si="44"/>
-        <v>1000000</v>
+        <v>72000</v>
       </c>
       <c r="AP25" s="8">
         <f>AP24/(AP24+AP12)*1000000</f>
-        <v>1000000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="27" spans="2:42" ht="19.149999999999999" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="B2:B25"/>
@@ -13132,19 +13221,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13199,32 +13275,32 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="2:12" s="31" customFormat="1" ht="54.75" customHeight="1">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="75" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="80" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
     </row>
     <row r="4" spans="2:12" s="31" customFormat="1" ht="51" customHeight="1">
-      <c r="B4" s="78"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="33" t="s">
         <v>22</v>
       </c>
@@ -13240,15 +13316,15 @@
       <c r="I4" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="76"/>
+      <c r="J4" s="81"/>
       <c r="K4" s="32"/>
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B5" s="71">
+      <c r="B5" s="74">
         <v>1</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="72">
         <v>45566</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -13272,8 +13348,8 @@
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B6" s="72"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="29" t="s">
         <v>41</v>
       </c>
@@ -13297,10 +13373,10 @@
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B7" s="71">
+      <c r="B7" s="74">
         <v>2</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="72">
         <v>45567</v>
       </c>
       <c r="D7" s="29" t="s">
@@ -13326,8 +13402,8 @@
       <c r="K7" s="45"/>
     </row>
     <row r="8" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="29" t="s">
         <v>41</v>
       </c>
@@ -13351,10 +13427,10 @@
       <c r="K8" s="45"/>
     </row>
     <row r="9" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B9" s="71">
+      <c r="B9" s="74">
         <v>3</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="72">
         <v>45568</v>
       </c>
       <c r="D9" s="29" t="s">
@@ -13376,8 +13452,8 @@
       <c r="K9" s="45"/>
     </row>
     <row r="10" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B10" s="72"/>
-      <c r="C10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="29" t="s">
         <v>41</v>
       </c>
@@ -13399,10 +13475,10 @@
       <c r="K10" s="45"/>
     </row>
     <row r="11" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B11" s="71">
+      <c r="B11" s="74">
         <v>4</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="72">
         <v>45569</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -13424,8 +13500,8 @@
       <c r="K11" s="45"/>
     </row>
     <row r="12" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="29" t="s">
         <v>41</v>
       </c>
@@ -13447,10 +13523,10 @@
       <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B13" s="71">
+      <c r="B13" s="74">
         <v>5</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="77">
         <v>45570</v>
       </c>
       <c r="D13" s="29" t="s">
@@ -13474,8 +13550,8 @@
       <c r="K13" s="45"/>
     </row>
     <row r="14" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B14" s="72"/>
-      <c r="C14" s="86"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="29" t="s">
         <v>45</v>
       </c>
@@ -13497,8 +13573,8 @@
       <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B15" s="72"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="29" t="s">
         <v>40</v>
       </c>
@@ -13520,8 +13596,8 @@
       <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:12" ht="43.5" customHeight="1">
-      <c r="B16" s="88"/>
-      <c r="C16" s="87"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="29" t="s">
         <v>41</v>
       </c>
@@ -13545,10 +13621,10 @@
       <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B17" s="71">
+      <c r="B17" s="74">
         <v>6</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="77">
         <v>45572</v>
       </c>
       <c r="D17" s="29" t="s">
@@ -13572,8 +13648,8 @@
       <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B18" s="72"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="29" t="s">
         <v>45</v>
       </c>
@@ -13595,8 +13671,8 @@
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B19" s="72"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="29" t="s">
         <v>40</v>
       </c>
@@ -13620,8 +13696,8 @@
       <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="87"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="29" t="s">
         <v>41</v>
       </c>
@@ -13645,10 +13721,10 @@
       <c r="K20" s="45"/>
     </row>
     <row r="21" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B21" s="71">
+      <c r="B21" s="74">
         <v>7</v>
       </c>
-      <c r="C21" s="73">
+      <c r="C21" s="72">
         <v>45572</v>
       </c>
       <c r="D21" s="29" t="s">
@@ -13666,8 +13742,8 @@
       <c r="K21" s="45"/>
     </row>
     <row r="22" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B22" s="72"/>
-      <c r="C22" s="74"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="29" t="s">
         <v>41</v>
       </c>
@@ -13683,10 +13759,10 @@
       <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B23" s="71">
+      <c r="B23" s="74">
         <v>8</v>
       </c>
-      <c r="C23" s="73">
+      <c r="C23" s="72">
         <v>45573</v>
       </c>
       <c r="D23" s="29" t="s">
@@ -13704,8 +13780,8 @@
       <c r="K23" s="45"/>
     </row>
     <row r="24" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B24" s="72"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="29" t="s">
         <v>41</v>
       </c>
@@ -13721,10 +13797,10 @@
       <c r="K24" s="45"/>
     </row>
     <row r="25" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B25" s="71">
+      <c r="B25" s="74">
         <v>9</v>
       </c>
-      <c r="C25" s="73">
+      <c r="C25" s="72">
         <v>45574</v>
       </c>
       <c r="D25" s="29" t="s">
@@ -13742,8 +13818,8 @@
       <c r="K25" s="45"/>
     </row>
     <row r="26" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B26" s="72"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="29" t="s">
         <v>41</v>
       </c>
@@ -13759,10 +13835,10 @@
       <c r="K26" s="45"/>
     </row>
     <row r="27" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B27" s="71">
+      <c r="B27" s="74">
         <v>10</v>
       </c>
-      <c r="C27" s="73">
+      <c r="C27" s="72">
         <v>45575</v>
       </c>
       <c r="D27" s="29" t="s">
@@ -13780,8 +13856,8 @@
       <c r="K27" s="45"/>
     </row>
     <row r="28" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B28" s="72"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="29" t="s">
         <v>41</v>
       </c>
@@ -13797,10 +13873,10 @@
       <c r="K28" s="45"/>
     </row>
     <row r="29" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B29" s="71">
+      <c r="B29" s="74">
         <v>11</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="72">
         <v>45576</v>
       </c>
       <c r="D29" s="29" t="s">
@@ -13818,8 +13894,8 @@
       <c r="K29" s="45"/>
     </row>
     <row r="30" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B30" s="72"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="73"/>
       <c r="D30" s="29" t="s">
         <v>41</v>
       </c>
@@ -13835,10 +13911,10 @@
       <c r="K30" s="45"/>
     </row>
     <row r="31" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B31" s="71">
+      <c r="B31" s="74">
         <v>12</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="72">
         <v>45577</v>
       </c>
       <c r="D31" s="29" t="s">
@@ -13856,8 +13932,8 @@
       <c r="K31" s="45"/>
     </row>
     <row r="32" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B32" s="72"/>
-      <c r="C32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="29" t="s">
         <v>41</v>
       </c>
@@ -13873,10 +13949,10 @@
       <c r="K32" s="45"/>
     </row>
     <row r="33" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B33" s="71">
+      <c r="B33" s="74">
         <v>13</v>
       </c>
-      <c r="C33" s="73">
+      <c r="C33" s="72">
         <v>45578</v>
       </c>
       <c r="D33" s="29" t="s">
@@ -13894,8 +13970,8 @@
       <c r="K33" s="45"/>
     </row>
     <row r="34" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B34" s="72"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="29" t="s">
         <v>41</v>
       </c>
@@ -13911,10 +13987,10 @@
       <c r="K34" s="45"/>
     </row>
     <row r="35" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B35" s="71">
+      <c r="B35" s="74">
         <v>14</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="72">
         <v>45579</v>
       </c>
       <c r="D35" s="29" t="s">
@@ -13932,8 +14008,8 @@
       <c r="K35" s="45"/>
     </row>
     <row r="36" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B36" s="72"/>
-      <c r="C36" s="74"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="29" t="s">
         <v>41</v>
       </c>
@@ -13949,10 +14025,10 @@
       <c r="K36" s="45"/>
     </row>
     <row r="37" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B37" s="71">
+      <c r="B37" s="74">
         <v>15</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="72">
         <v>45580</v>
       </c>
       <c r="D37" s="29" t="s">
@@ -13970,8 +14046,8 @@
       <c r="K37" s="45"/>
     </row>
     <row r="38" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B38" s="72"/>
-      <c r="C38" s="74"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="29" t="s">
         <v>41</v>
       </c>
@@ -13987,10 +14063,10 @@
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B39" s="71">
+      <c r="B39" s="74">
         <v>16</v>
       </c>
-      <c r="C39" s="73">
+      <c r="C39" s="72">
         <v>45581</v>
       </c>
       <c r="D39" s="29" t="s">
@@ -14008,8 +14084,8 @@
       <c r="K39" s="45"/>
     </row>
     <row r="40" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B40" s="72"/>
-      <c r="C40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="29" t="s">
         <v>41</v>
       </c>
@@ -14025,10 +14101,10 @@
       <c r="K40" s="45"/>
     </row>
     <row r="41" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B41" s="71">
+      <c r="B41" s="74">
         <v>17</v>
       </c>
-      <c r="C41" s="73">
+      <c r="C41" s="72">
         <v>45582</v>
       </c>
       <c r="D41" s="29" t="s">
@@ -14046,8 +14122,8 @@
       <c r="K41" s="45"/>
     </row>
     <row r="42" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B42" s="72"/>
-      <c r="C42" s="74"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="29" t="s">
         <v>41</v>
       </c>
@@ -14063,10 +14139,10 @@
       <c r="K42" s="45"/>
     </row>
     <row r="43" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B43" s="71">
+      <c r="B43" s="74">
         <v>18</v>
       </c>
-      <c r="C43" s="73">
+      <c r="C43" s="72">
         <v>45583</v>
       </c>
       <c r="D43" s="29" t="s">
@@ -14084,8 +14160,8 @@
       <c r="K43" s="45"/>
     </row>
     <row r="44" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B44" s="72"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="73"/>
       <c r="D44" s="29" t="s">
         <v>41</v>
       </c>
@@ -14101,10 +14177,10 @@
       <c r="K44" s="45"/>
     </row>
     <row r="45" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B45" s="71">
+      <c r="B45" s="74">
         <v>19</v>
       </c>
-      <c r="C45" s="73">
+      <c r="C45" s="72">
         <v>45584</v>
       </c>
       <c r="D45" s="29" t="s">
@@ -14122,8 +14198,8 @@
       <c r="K45" s="45"/>
     </row>
     <row r="46" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B46" s="72"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="75"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="29" t="s">
         <v>41</v>
       </c>
@@ -14139,10 +14215,10 @@
       <c r="K46" s="45"/>
     </row>
     <row r="47" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B47" s="71">
+      <c r="B47" s="74">
         <v>20</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="72">
         <v>45585</v>
       </c>
       <c r="D47" s="29" t="s">
@@ -14160,8 +14236,8 @@
       <c r="K47" s="45"/>
     </row>
     <row r="48" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B48" s="72"/>
-      <c r="C48" s="74"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="29" t="s">
         <v>41</v>
       </c>
@@ -14177,10 +14253,10 @@
       <c r="K48" s="45"/>
     </row>
     <row r="49" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B49" s="71">
+      <c r="B49" s="74">
         <v>21</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="72">
         <v>45586</v>
       </c>
       <c r="D49" s="29" t="s">
@@ -14198,8 +14274,8 @@
       <c r="K49" s="45"/>
     </row>
     <row r="50" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B50" s="72"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="29" t="s">
         <v>41</v>
       </c>
@@ -14215,10 +14291,10 @@
       <c r="K50" s="45"/>
     </row>
     <row r="51" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B51" s="71">
+      <c r="B51" s="74">
         <v>22</v>
       </c>
-      <c r="C51" s="73">
+      <c r="C51" s="72">
         <v>45587</v>
       </c>
       <c r="D51" s="29" t="s">
@@ -14236,8 +14312,8 @@
       <c r="K51" s="45"/>
     </row>
     <row r="52" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B52" s="72"/>
-      <c r="C52" s="74"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="29" t="s">
         <v>41</v>
       </c>
@@ -14253,10 +14329,10 @@
       <c r="K52" s="45"/>
     </row>
     <row r="53" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B53" s="71">
+      <c r="B53" s="74">
         <v>23</v>
       </c>
-      <c r="C53" s="73">
+      <c r="C53" s="72">
         <v>45588</v>
       </c>
       <c r="D53" s="29" t="s">
@@ -14274,8 +14350,8 @@
       <c r="K53" s="45"/>
     </row>
     <row r="54" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B54" s="72"/>
-      <c r="C54" s="74"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="29" t="s">
         <v>41</v>
       </c>
@@ -14291,10 +14367,10 @@
       <c r="K54" s="45"/>
     </row>
     <row r="55" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B55" s="71">
+      <c r="B55" s="74">
         <v>24</v>
       </c>
-      <c r="C55" s="73">
+      <c r="C55" s="72">
         <v>45589</v>
       </c>
       <c r="D55" s="29" t="s">
@@ -14312,8 +14388,8 @@
       <c r="K55" s="45"/>
     </row>
     <row r="56" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B56" s="72"/>
-      <c r="C56" s="74"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="73"/>
       <c r="D56" s="29" t="s">
         <v>41</v>
       </c>
@@ -14329,10 +14405,10 @@
       <c r="K56" s="45"/>
     </row>
     <row r="57" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B57" s="71">
+      <c r="B57" s="74">
         <v>25</v>
       </c>
-      <c r="C57" s="73">
+      <c r="C57" s="72">
         <v>45590</v>
       </c>
       <c r="D57" s="29" t="s">
@@ -14350,8 +14426,8 @@
       <c r="K57" s="45"/>
     </row>
     <row r="58" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B58" s="72"/>
-      <c r="C58" s="74"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="29" t="s">
         <v>41</v>
       </c>
@@ -14367,10 +14443,10 @@
       <c r="K58" s="45"/>
     </row>
     <row r="59" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B59" s="71">
+      <c r="B59" s="74">
         <v>26</v>
       </c>
-      <c r="C59" s="73">
+      <c r="C59" s="72">
         <v>45591</v>
       </c>
       <c r="D59" s="29" t="s">
@@ -14388,8 +14464,8 @@
       <c r="K59" s="45"/>
     </row>
     <row r="60" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B60" s="72"/>
-      <c r="C60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="73"/>
       <c r="D60" s="29" t="s">
         <v>41</v>
       </c>
@@ -14405,10 +14481,10 @@
       <c r="K60" s="45"/>
     </row>
     <row r="61" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B61" s="71">
+      <c r="B61" s="74">
         <v>27</v>
       </c>
-      <c r="C61" s="73">
+      <c r="C61" s="72">
         <v>45592</v>
       </c>
       <c r="D61" s="29" t="s">
@@ -14426,8 +14502,8 @@
       <c r="K61" s="45"/>
     </row>
     <row r="62" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B62" s="72"/>
-      <c r="C62" s="74"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="73"/>
       <c r="D62" s="29" t="s">
         <v>41</v>
       </c>
@@ -14443,10 +14519,10 @@
       <c r="K62" s="45"/>
     </row>
     <row r="63" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B63" s="71">
+      <c r="B63" s="74">
         <v>28</v>
       </c>
-      <c r="C63" s="73">
+      <c r="C63" s="72">
         <v>45593</v>
       </c>
       <c r="D63" s="29" t="s">
@@ -14464,8 +14540,8 @@
       <c r="K63" s="45"/>
     </row>
     <row r="64" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B64" s="72"/>
-      <c r="C64" s="74"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="73"/>
       <c r="D64" s="29" t="s">
         <v>41</v>
       </c>
@@ -14481,10 +14557,10 @@
       <c r="K64" s="45"/>
     </row>
     <row r="65" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B65" s="71">
+      <c r="B65" s="74">
         <v>29</v>
       </c>
-      <c r="C65" s="73">
+      <c r="C65" s="72">
         <v>45594</v>
       </c>
       <c r="D65" s="29" t="s">
@@ -14502,8 +14578,8 @@
       <c r="K65" s="45"/>
     </row>
     <row r="66" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B66" s="72"/>
-      <c r="C66" s="74"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="73"/>
       <c r="D66" s="47" t="s">
         <v>41</v>
       </c>
@@ -14519,10 +14595,10 @@
       <c r="K66" s="45"/>
     </row>
     <row r="67" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B67" s="89">
+      <c r="B67" s="71">
         <v>30</v>
       </c>
-      <c r="C67" s="73">
+      <c r="C67" s="72">
         <v>45595</v>
       </c>
       <c r="D67" s="29" t="s">
@@ -14539,8 +14615,8 @@
       </c>
     </row>
     <row r="68" spans="2:11" ht="43.5" customHeight="1">
-      <c r="B68" s="89"/>
-      <c r="C68" s="74"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="73"/>
       <c r="D68" s="29" t="s">
         <v>41</v>
       </c>
@@ -14556,62 +14632,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B13:B16"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B5:B6"/>
@@ -14621,6 +14641,62 @@
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.15748031496062992" footer="0.15748031496062992"/>
